--- a/riscoss-webapp/src/main/webapp/resources/Supersede_IPR_Registry_v3.xlsx
+++ b/riscoss-webapp/src/main/webapp/resources/Supersede_IPR_Registry_v3.xlsx
@@ -215,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,6 +240,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -347,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,19 +368,23 @@
       <alignment horizontal="general" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,11 +396,11 @@
       <alignment horizontal="general" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +408,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,8 +496,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>435960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>253440</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,7 +536,7 @@
   <dimension ref="1:68"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -1571,14 +1583,1040 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -2599,967 +3637,973 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="7" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="I8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="0"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="I9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3596,13 +4640,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3634,10 +4678,10 @@
       <c r="A5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3645,10 +4689,10 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
     </row>

--- a/riscoss-webapp/src/main/webapp/resources/Supersede_IPR_Registry_v3.xlsx
+++ b/riscoss-webapp/src/main/webapp/resources/Supersede_IPR_Registry_v3.xlsx
@@ -58,40 +58,40 @@
     <t>Last update</t>
   </si>
   <si>
-    <t>WebContent</t>
+    <t>a1</t>
   </si>
   <si>
     <t>ASL3</t>
   </si>
   <si>
-    <t>itsdangerous 0.24</t>
+    <t>b1</t>
   </si>
   <si>
     <t>ASL2</t>
   </si>
   <si>
-    <t>typhoeus 0.7.1</t>
+    <t>c1</t>
   </si>
   <si>
     <t>Artistic2</t>
   </si>
   <si>
-    <t>Ganglia-web 3.6.2</t>
+    <t>d1</t>
   </si>
   <si>
     <t>LGPL2.1</t>
   </si>
   <si>
-    <t>RISCOSS</t>
-  </si>
-  <si>
-    <t>riscoss-data-collectors</t>
-  </si>
-  <si>
-    <t>riscoss-corporate</t>
-  </si>
-  <si>
-    <t>riscoss-analyser</t>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
   <si>
     <t>License ID</t>
@@ -489,15 +489,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
+      <xdr:colOff>462600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -512,8 +512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464760" y="56520"/>
-          <a:ext cx="2743560" cy="473040"/>
+          <a:off x="491760" y="47520"/>
+          <a:ext cx="2743200" cy="472680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,7 +536,7 @@
   <dimension ref="1:68"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
